--- a/CKD - SD model/model files/for import/import calibration params.xlsx
+++ b/CKD - SD model/model files/for import/import calibration params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csucloudservices-my.sharepoint.com/personal/sally_thompson_mlcsu_nhs_uk/Documents/Documents/1210 Renal NHP/Stella/for import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{800DBC19-5D79-4F0A-B483-2DEE44CC8B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F8CAB99-31E7-40ED-99E3-87A365EAEA3F}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{800DBC19-5D79-4F0A-B483-2DEE44CC8B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D85882AD-445B-4270-9677-E47151006C0F}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="1080" windowWidth="23520" windowHeight="13545" xr2:uid="{1D5502B5-52C9-4408-9420-0CD17BF98BC4}"/>
+    <workbookView xWindow="5565" yWindow="600" windowWidth="19245" windowHeight="15225" xr2:uid="{1D5502B5-52C9-4408-9420-0CD17BF98BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="calibration params" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,28 +574,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.48764005945900002</v>
+        <v>2.0487476081399998</v>
       </c>
       <c r="C4">
-        <v>1.81482492882</v>
+        <v>2.3317645809899998</v>
       </c>
       <c r="D4">
-        <v>1.63981</v>
+        <v>1.9793818972999999</v>
       </c>
       <c r="E4">
-        <v>0.93222000000000005</v>
+        <v>2.1467547205400002</v>
       </c>
       <c r="F4">
-        <v>1.2445600000000001</v>
+        <v>1.8948320172999999</v>
       </c>
       <c r="G4">
-        <v>0.80872999999999995</v>
+        <v>2.0401211340800001</v>
       </c>
       <c r="H4">
-        <v>1.2772600000000001</v>
+        <v>2.1565290911099999</v>
       </c>
       <c r="I4">
-        <v>0.76512999999999998</v>
+        <v>2.1899351025099998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
